--- a/Week 13 - Counterfeit Supplements.xlsx
+++ b/Week 13 - Counterfeit Supplements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keela\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keela\OneDrive\Documents\BUT GACO\DONG-A\S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F6D070-2EFA-464C-AD54-ABA1F19A27E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F260369-4D3B-4D9D-A425-6469A3FF04D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>Problem overview:</t>
   </si>
@@ -435,6 +435,36 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>NOISE</t>
+  </si>
+  <si>
+    <t>USEFUL</t>
+  </si>
+  <si>
+    <t>UNSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP 3 : </t>
+  </si>
+  <si>
+    <t>If The product got a score lower the 2,5 then let's check the batch number and the seller. If the seller is already suspicious and the batch number starts with BATCH-4 then the product needs to be suspended from selling platforms, one sample need to be checked by the warehouse and the color of the packaging verifies. If all the useful field matches the product is deleted and the brand banned to avoid other fake products.</t>
+  </si>
+  <si>
+    <t>The batch number is useful, easily identifiable, it's simple to remove or know immediately the fake product, in this case the products starting by BATCH-4</t>
+  </si>
+  <si>
+    <t>The brand will be categorized and can be removed easily. When a brand is, suspicious company can immediately remove or try the product and check if it's fake</t>
+  </si>
+  <si>
+    <t>All the fake product comes from the same Warehouse. The security check of these products in the warehouse is maybe too low or someone uses this warehouse to sell the bad product. With this category it's a new parameter who can help to identify suspicious brand or product.</t>
+  </si>
+  <si>
+    <t>When all product of the category are good rating and one part got a really low score, it's easy to identify the fake product and remove them. It's probably the most useful field, easy clear and easily identifiable. And will be the major factor to isolate fake brands</t>
+  </si>
+  <si>
+    <t>The quality of the product is important, however here all the fake got a yellow packagaging. This is usually due to the bad quality of the fake product who just copy of good in lower quality. The color can tell immediately the quality of the product.</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -467,6 +497,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,8 +554,31 @@
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;, monospace"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,12 +617,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,12 +624,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,19 +647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -658,11 +700,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -671,9 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -708,18 +742,45 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,23 +1001,23 @@
   </sheetPr>
   <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.7265625" customWidth="1"/>
     <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.26953125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.90625" customWidth="1"/>
     <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" customWidth="1"/>
     <col min="12" max="12" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.90625" customWidth="1"/>
@@ -966,15 +1027,15 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -996,12 +1057,12 @@
     </row>
     <row r="2" spans="1:26" ht="23">
       <c r="A2" s="1"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1026,14 +1087,14 @@
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1056,12 +1117,12 @@
     </row>
     <row r="4" spans="1:26" ht="23">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1086,14 +1147,14 @@
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1116,12 +1177,12 @@
     </row>
     <row r="6" spans="1:26" ht="23">
       <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1146,14 +1207,14 @@
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1178,15 +1239,15 @@
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1210,14 +1271,14 @@
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1242,15 +1303,15 @@
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1270,7 +1331,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1302,15 +1363,15 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1330,7 +1391,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1388,7 +1449,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1456,7 +1517,7 @@
       <c r="M16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="O16" s="3"/>
@@ -1476,40 +1537,40 @@
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <v>1.4</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="5">
         <v>45770</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="18" t="s">
         <v>37</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -1520,175 +1581,175 @@
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>1.6</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="5">
         <v>45764</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="19" t="s">
         <v>45</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <v>4.7</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="23">
         <v>45777</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="14">
+      <c r="A20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="23">
         <v>45748</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="14">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="23">
         <v>45766</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1696,87 +1757,87 @@
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <v>1.6</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="5">
         <v>45801</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="19" t="s">
         <v>45</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="14">
+      <c r="A23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="14">
         <v>4.5</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="23">
         <v>45764</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1784,40 +1845,40 @@
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="5">
         <v>45748</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="17" t="s">
         <v>55</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -1828,40 +1889,40 @@
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="5">
         <v>45792</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="17" t="s">
         <v>55</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -1884,14 +1945,46 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="14">
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+    <row r="27" spans="1:14" ht="18">
+      <c r="A27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" ht="14">
@@ -1904,12 +1997,26 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="14">
+    <row r="29" spans="1:14" ht="140">
+      <c r="C29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1924,7 +2031,13 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="14">
+    <row r="31" spans="1:14" ht="146.5" customHeight="1">
+      <c r="A31" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
